--- a/data/input/eurobank/202510.xlsx
+++ b/data/input/eurobank/202510.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00F04EE-C674-4FA4-9996-72507E55411C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E89850C-75D0-4B59-B1A4-27D663B87D9A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3214,7 +3217,7 @@
   <dimension ref="A1:AQ269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26477,6 +26480,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input/eurobank/202510.xlsx
+++ b/data/input/eurobank/202510.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E89850C-75D0-4B59-B1A4-27D663B87D9A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7B78C70-9105-4026-98F0-8DA49E536C23}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3214,15 +3214,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T179" sqref="T179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
@@ -3356,7 +3358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1530289</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1394023</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1394024</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>289233</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>66</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>72</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>72</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>72</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>72</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>72</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>72</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>72</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>72</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>72</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>72</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>72</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>72</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>72</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>72</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>72</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>73</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>73</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>70</v>
       </c>
@@ -5815,7 +5817,7 @@
         <v>45916</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>75</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>689361</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>689362</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>75</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>75</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>75</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>75</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>76</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>78</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>78</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>78</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>79</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>88</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>84</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>552561</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1350081</v>
       </c>
@@ -7477,7 +7479,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>584160</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2171960</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2171963</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>45712</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>61</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>61</v>
       </c>
@@ -8177,7 +8179,7 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>63</v>
       </c>
@@ -8278,7 +8280,7 @@
         <v>45909</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>73</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>73</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>73</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>75</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>76</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>76</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>81</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>81</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>82</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>84</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>45926</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>87</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>87</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>953616</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>414467</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>79</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>88</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>349939</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1519148</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>770702</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1592066</v>
       </c>
@@ -10400,7 +10402,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2105405</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1578694</v>
       </c>
@@ -10530,7 +10532,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1337091</v>
       </c>
@@ -10595,7 +10597,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>66</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>66</v>
       </c>
@@ -10898,7 +10900,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>67</v>
       </c>
@@ -10999,7 +11001,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>67</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>67</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>69</v>
       </c>
@@ -11308,7 +11310,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>70</v>
       </c>
@@ -11415,7 +11417,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>72</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>72</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>73</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>73</v>
       </c>
@@ -11825,7 +11827,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>73</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>81</v>
       </c>
@@ -12033,7 +12035,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>81</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>81</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>81</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>13</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1442793</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>657718</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1649815</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>2073495</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>61</v>
       </c>
@@ -12798,7 +12800,7 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>63</v>
       </c>
@@ -12923,7 +12925,7 @@
         <v>45909</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>63</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>45909</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>78</v>
       </c>
@@ -13125,7 +13127,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>85</v>
       </c>
@@ -13226,7 +13228,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>84</v>
       </c>
@@ -13327,7 +13329,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>1561240</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>1629110</v>
       </c>
@@ -13457,7 +13459,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>37</v>
       </c>
@@ -13564,7 +13566,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>8301359</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>8301360</v>
       </c>
@@ -13694,7 +13696,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>1594728</v>
       </c>
@@ -13759,7 +13761,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>64</v>
       </c>
@@ -13860,7 +13862,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>64</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>67</v>
       </c>
@@ -14050,7 +14052,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>67</v>
       </c>
@@ -14151,7 +14153,7 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>66</v>
       </c>
@@ -14258,7 +14260,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>72</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>72</v>
       </c>
@@ -14463,7 +14465,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>72</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>76</v>
       </c>
@@ -14662,7 +14664,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>78</v>
       </c>
@@ -14763,7 +14765,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>76</v>
       </c>
@@ -14864,7 +14866,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>79</v>
       </c>
@@ -14971,7 +14973,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>79</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>82</v>
       </c>
@@ -15173,7 +15175,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>85</v>
       </c>
@@ -15274,7 +15276,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>85</v>
       </c>
@@ -15375,7 +15377,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>85</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>88</v>
       </c>
@@ -15574,7 +15576,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>73</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>73</v>
       </c>
@@ -15776,7 +15778,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>73</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>73</v>
       </c>
@@ -15984,7 +15986,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>69</v>
       </c>
@@ -16085,7 +16087,7 @@
         <v>45916</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>69</v>
       </c>
@@ -16186,7 +16188,7 @@
         <v>45916</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>78</v>
       </c>
@@ -16287,7 +16289,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>85</v>
       </c>
@@ -16391,7 +16393,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>87</v>
       </c>
@@ -16489,7 +16491,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>87</v>
       </c>
@@ -16587,7 +16589,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>87</v>
       </c>
@@ -16685,7 +16687,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>2057922</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>2057923</v>
       </c>
@@ -16815,7 +16817,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="145" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>2057924</v>
       </c>
@@ -16880,7 +16882,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="146" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>1666284</v>
       </c>
@@ -16945,7 +16947,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="147" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>2086617</v>
       </c>
@@ -17010,7 +17012,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="148" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>601000</v>
       </c>
@@ -17075,7 +17077,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="149" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1265673</v>
       </c>
@@ -17140,7 +17142,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="150" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>1265674</v>
       </c>
@@ -17205,7 +17207,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="151" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1674360</v>
       </c>
@@ -17270,7 +17272,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="152" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1547008</v>
       </c>
@@ -17335,7 +17337,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="153" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1661833</v>
       </c>
@@ -17400,7 +17402,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="154" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>1569216</v>
       </c>
@@ -17465,7 +17467,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="155" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>1569218</v>
       </c>
@@ -17530,7 +17532,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="156" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>1569224</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="157" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>67101</v>
       </c>
@@ -17660,7 +17662,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="158" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>67103</v>
       </c>
@@ -17725,7 +17727,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="159" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>1038185</v>
       </c>
@@ -17790,7 +17792,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="160" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>74374</v>
       </c>
@@ -17855,7 +17857,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>1413245</v>
       </c>
@@ -17920,7 +17922,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>63</v>
       </c>
@@ -18021,7 +18023,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>63</v>
       </c>
@@ -18128,7 +18130,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>79</v>
       </c>
@@ -18235,7 +18237,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>81</v>
       </c>
@@ -18336,7 +18338,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>81</v>
       </c>
@@ -18449,7 +18451,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>73</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>75</v>
       </c>
@@ -18663,7 +18665,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>87</v>
       </c>
@@ -18770,7 +18772,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>87</v>
       </c>
@@ -18871,7 +18873,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>87</v>
       </c>
@@ -18972,7 +18974,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>82</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>79</v>
       </c>
@@ -19168,7 +19170,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>79</v>
       </c>
@@ -19266,7 +19268,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>85</v>
       </c>
@@ -19373,7 +19375,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>85</v>
       </c>
@@ -19474,7 +19476,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>84</v>
       </c>
@@ -19563,7 +19565,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>82</v>
       </c>
@@ -21029,7 +21031,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="200" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>154840</v>
       </c>
@@ -21094,7 +21096,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="201" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>154840</v>
       </c>
@@ -21159,7 +21161,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="202" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>154840</v>
       </c>
@@ -21224,7 +21226,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="203" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>154840</v>
       </c>
@@ -21289,7 +21291,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="204" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>154840</v>
       </c>
@@ -21354,7 +21356,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="205" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>154840</v>
       </c>
@@ -21419,7 +21421,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="206" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>154840</v>
       </c>
@@ -21484,7 +21486,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="207" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>154840</v>
       </c>
@@ -21549,7 +21551,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="208" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>154840</v>
       </c>
@@ -21614,7 +21616,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="209" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>154840</v>
       </c>
@@ -21679,7 +21681,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="210" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>154840</v>
       </c>
@@ -21744,7 +21746,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="211" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>154840</v>
       </c>
@@ -21809,7 +21811,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="212" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>154840</v>
       </c>
@@ -21874,7 +21876,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="213" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>154840</v>
       </c>
@@ -21939,7 +21941,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="214" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>154840</v>
       </c>
@@ -22004,7 +22006,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="215" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>154840</v>
       </c>
@@ -22069,7 +22071,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="216" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>154840</v>
       </c>
@@ -22134,7 +22136,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="217" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>154840</v>
       </c>
@@ -22199,7 +22201,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="218" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>154840</v>
       </c>
@@ -22264,7 +22266,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="219" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>154840</v>
       </c>
@@ -22329,7 +22331,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="220" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>154840</v>
       </c>
@@ -22394,7 +22396,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="221" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>154840</v>
       </c>
@@ -22459,7 +22461,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="222" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>154840</v>
       </c>
@@ -22524,7 +22526,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="223" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>154840</v>
       </c>
@@ -22589,7 +22591,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="224" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>154840</v>
       </c>
@@ -22654,7 +22656,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>154840</v>
       </c>
@@ -22719,7 +22721,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>154840</v>
       </c>
@@ -22784,7 +22786,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>154840</v>
       </c>
@@ -22849,7 +22851,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>154840</v>
       </c>
@@ -22914,7 +22916,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>154840</v>
       </c>
@@ -22979,7 +22981,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>154840</v>
       </c>
@@ -23044,7 +23046,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>154840</v>
       </c>
@@ -23109,7 +23111,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>154840</v>
       </c>
@@ -23174,7 +23176,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>154840</v>
       </c>
@@ -23239,7 +23241,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>154840</v>
       </c>
@@ -23304,7 +23306,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>154840</v>
       </c>
@@ -23369,7 +23371,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>154840</v>
       </c>
@@ -23434,7 +23436,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>154840</v>
       </c>
@@ -23499,7 +23501,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>154840</v>
       </c>
@@ -23564,7 +23566,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>154840</v>
       </c>
@@ -23629,7 +23631,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>154840</v>
       </c>
@@ -23694,7 +23696,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>154840</v>
       </c>
@@ -23759,7 +23761,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>154840</v>
       </c>
@@ -23824,7 +23826,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>154840</v>
       </c>
@@ -23889,7 +23891,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>84</v>
       </c>
@@ -23978,7 +23980,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>84</v>
       </c>
@@ -24079,7 +24081,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>84</v>
       </c>
@@ -24186,7 +24188,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>84</v>
       </c>
@@ -24275,7 +24277,7 @@
         <v>45929</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>79</v>
       </c>
@@ -24376,7 +24378,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>78</v>
       </c>
@@ -24501,7 +24503,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>78</v>
       </c>
@@ -24602,7 +24604,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>78</v>
       </c>
@@ -24703,7 +24705,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>78</v>
       </c>
@@ -24804,7 +24806,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>79</v>
       </c>
@@ -24911,7 +24913,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>79</v>
       </c>
@@ -25000,7 +25002,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>79</v>
       </c>
@@ -25101,7 +25103,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>79</v>
       </c>
@@ -25202,7 +25204,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>79</v>
       </c>
@@ -25303,7 +25305,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>79</v>
       </c>
@@ -25416,7 +25418,7 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>76</v>
       </c>
@@ -25517,7 +25519,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>76</v>
       </c>
@@ -25618,7 +25620,7 @@
         <v>45923</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>70</v>
       </c>
@@ -25719,7 +25721,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>64</v>
       </c>
@@ -25808,7 +25810,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>64</v>
       </c>
@@ -25909,7 +25911,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>66</v>
       </c>
@@ -26010,7 +26012,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>64</v>
       </c>
@@ -26111,7 +26113,7 @@
         <v>45911</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>63</v>
       </c>
@@ -26212,7 +26214,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>66</v>
       </c>
@@ -26313,7 +26315,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>66</v>
       </c>
@@ -26414,7 +26416,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>2168598</v>
       </c>
@@ -26480,7 +26482,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ269" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="BEBAIΩΜΕΝΗ ΠΡΟΣΑΥΞΗΣΗ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input/eurobank/202510.xlsx
+++ b/data/input/eurobank/202510.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cervedgroup-my.sharepoint.com/personal/alexis_milionis_cerved_com/Documents/codebase/Utilities/streamlit/data/input/eurobank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7B78C70-9105-4026-98F0-8DA49E536C23}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{728808AE-59E4-43AA-B51A-14538A7095E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3217,14 +3217,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AQ269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T179" sqref="T179"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AQ179" sqref="AQ179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
